--- a/data/trans_bre/IP19C09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C09-Edad-trans_bre.xlsx
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-52,96%</t>
+          <t>-35,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,07%</t>
+          <t>-54,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>50,48%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 0,62</t>
+          <t>-3,95; 2,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,29</t>
+          <t>-5,1; 1,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,06</t>
+          <t>-2,57; 5,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-88,58; 80,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 224,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,49; 410,96</t>
+          <t>-64,22; 478,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-35,58%</t>
+          <t>-52,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-54,03%</t>
+          <t>43,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>50,48%</t>
+          <t>0,08%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 2,2</t>
+          <t>-3,41; 0,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 1,51</t>
+          <t>-1,19; 2,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 5,63</t>
+          <t>-2,0; 2,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-88,58; 80,46</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 224,94</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-64,22; 478,36</t>
+          <t>-80,49; 410,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C09-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>18,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-79,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,51%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 1,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 15,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-35,58%</t>
+          <t>-73,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-54,03%</t>
+          <t>-5,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>50,48%</t>
+          <t>-21,7%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 2,2</t>
+          <t>-9,17; -0,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 1,51</t>
+          <t>-4,34; 5,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 5,63</t>
+          <t>-7,54; 5,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 47,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 224,94</t>
+          <t>-100,0; 722,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,22; 478,36</t>
+          <t>-100,0; 240,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-52,96%</t>
+          <t>153,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,07%</t>
+          <t>-69,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>237,33%</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 0,62</t>
+          <t>-0,92; 4,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,29</t>
+          <t>-3,9; 0,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,06</t>
+          <t>-0,14; 5,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-88,58; 80,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -827,14 +827,14 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-80,49; 410,96</t>
+          <t>-57,39; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-54,52%</t>
+          <t>-62,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,63%</t>
+          <t>47,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>-51,46%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,02</t>
+          <t>-5,04; 0,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,45</t>
+          <t>-1,52; 2,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,12</t>
+          <t>-4,19; 1,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,86; 9,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,87; 181,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,11; 132,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-54,52%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-10,63%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 0,21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 1,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 1,91</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-83,4; 20,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-70,82; 146,77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-54,8; 131,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/IP19C09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C09-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -0,41</t>
+          <t>-9,32; -0,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 5,41</t>
+          <t>-4,51; 5,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 5,38</t>
+          <t>-7,52; 6,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 47,21</t>
+          <t>-100,0; 79,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 722,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 240,01</t>
+          <t>-100,0; 347,04</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 4,71</t>
+          <t>-0,9; 4,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 0,6</t>
+          <t>-4,11; 0,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,3</t>
+          <t>-0,08; 5,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,39; —</t>
+          <t>-54,18; —</t>
         </is>
       </c>
     </row>
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 0,16</t>
+          <t>-4,7; 0,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,87</t>
+          <t>-1,54; 2,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 1,12</t>
+          <t>-4,25; 1,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,11; 45,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 0,21</t>
+          <t>-3,49; -0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,4</t>
+          <t>-1,99; 1,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,91</t>
+          <t>-1,93; 2,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-83,4; 20,37</t>
+          <t>-83,93; 12,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-70,82; 146,77</t>
+          <t>-74,93; 160,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-54,8; 131,47</t>
+          <t>-56,85; 149,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C09-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -722,22 +722,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,32; -0,09</t>
+          <t>-8,54; -0,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 5,14</t>
+          <t>-4,26; 5,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 6,29</t>
+          <t>-7,45; 5,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 79,49</t>
+          <t>-100,0; 21,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 347,04</t>
+          <t>-100,0; 268,31</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,36</t>
+          <t>-0,62; 4,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,54</t>
+          <t>-4,38; 0,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 5,23</t>
+          <t>-0,13; 5,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,18; —</t>
+          <t>-64,57; —</t>
         </is>
       </c>
     </row>
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,26</t>
+          <t>-5,31; 0,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,49</t>
+          <t>-1,56; 2,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 1,09</t>
+          <t>-4,18; 1,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-92,11; 45,81</t>
+          <t>-100,0; 74,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; -0,0</t>
+          <t>-3,62; 0,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,53</t>
+          <t>-1,81; 1,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,24</t>
+          <t>-1,86; 2,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-83,93; 12,2</t>
+          <t>-83,86; 9,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-74,93; 160,95</t>
+          <t>-69,87; 181,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 149,87</t>
+          <t>-58,11; 132,93</t>
         </is>
       </c>
     </row>
